--- a/G35SMU_0321/G35SMU_3gyk.xlsx
+++ b/G35SMU_0321/G35SMU_3gyk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A8464-A4A8-43EA-B0FE-9E20BD61D7EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3BB25-4323-4BF8-947B-76A7C0D9656E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0&quot; fő&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot; dkg&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot; tétel&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -387,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,6 +429,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1791,7 +1793,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,7 +1883,7 @@
       <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="22">
         <f>COUNTIF(C3:C9,"&lt;100")</f>
         <v>4</v>
       </c>
